--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Mapping: Summary Document Architecure (SDA)</t>
+  </si>
+  <si>
+    <t>Mapping: Virtual Patient Record XML (VPR)</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -432,6 +435,9 @@
   </si>
   <si>
     <t>AdvanceDirective.Comments,Alert.Comments,Documents.NoteText</t>
+  </si>
+  <si>
+    <t>document.content[n]</t>
   </si>
   <si>
     <t>ED.data</t>
@@ -754,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -800,7 +806,8 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="76.03125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="54.19921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -921,6 +928,9 @@
       <c r="AM1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -931,883 +941,907 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>122</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM9">
+  <autoFilter ref="A1:AN9">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,9 @@
     <t>1725: source value based on TIU DOCUMENT - REPORT TEXT (8925-2)</t>
   </si>
   <si>
-    <t>AdvanceDirective.Comments,Alert.Comments,Documents.NoteText</t>
+    <t>AdvanceDirective.Comments
+Alert.Comments
+Documents.NoteText</t>
   </si>
   <si>
     <t>document.content[n]</t>
@@ -805,7 +807,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="76.03125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.19921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DocumentReferenceBinary.xlsx
+++ b/docs/StructureDefinition-DocumentReferenceBinary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
